--- a/Design/设计大纲.xlsx
+++ b/Design/设计大纲.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57611656-D4FC-4809-A4FB-928DAB051297}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EC70674-5258-4025-A57A-C2A006334166}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="585" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="585" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,18 @@
     <sheet name="村庄建造" sheetId="4" r:id="rId4"/>
     <sheet name="迷宫探索" sheetId="5" r:id="rId5"/>
     <sheet name="战斗系统" sheetId="6" r:id="rId6"/>
-    <sheet name="伙伴养成" sheetId="7" r:id="rId7"/>
-    <sheet name="技能系统" sheetId="8" r:id="rId8"/>
-    <sheet name="备忘" sheetId="10" r:id="rId9"/>
-    <sheet name="参考" sheetId="11" r:id="rId10"/>
+    <sheet name="职业系统" sheetId="12" r:id="rId7"/>
+    <sheet name="伙伴养成" sheetId="7" r:id="rId8"/>
+    <sheet name="技能系统" sheetId="8" r:id="rId9"/>
+    <sheet name="备忘" sheetId="10" r:id="rId10"/>
+    <sheet name="参考" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +346,10 @@
   </si>
   <si>
     <t>八方旅人职业地图技能交互系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火风地四块大陆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,10 +896,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -908,13 +962,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="82.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -929,6 +986,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +1157,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2A82CF-F11C-478C-A876-AAD245A09FC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1296,53 +1371,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>